--- a/stuff/rwc19.xlsx
+++ b/stuff/rwc19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonj/Code/Personal/gatsby-template/stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FEE8F5-B69F-6748-8457-1C949079F44F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F2102A-F128-4647-A390-1F1E6B373844}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="158">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>Match No</t>
+  </si>
+  <si>
+    <t>DTEND</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\Thh:mm:ss\Z"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm\Z"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1136,17 +1139,17 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1649,7 +1652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -1856,7 +1859,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1994,7 +1997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -2178,7 +2181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -2247,7 +2250,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -2270,7 +2273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -2316,7 +2319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -2454,7 +2457,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2477,7 +2480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -2500,7 +2503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>118</v>
       </c>
@@ -2523,7 +2526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>115</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -2615,7 +2618,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="119" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -2649,25 +2652,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="33.83203125" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="61" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="23.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2679,18 +2682,21 @@
       <c r="D1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="str">
@@ -2705,20 +2711,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E2))," 2019 ",TEXT('rwc19'!F2,"hh:mm:ss"))</f>
         <v>Friday 20 September 2019 11:45:00</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="7">
         <v>43728.489583333336</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="7">
+        <f>E2+TIME(1,20,0)</f>
+        <v>43728.545138888891</v>
+      </c>
+      <c r="G2" t="str">
         <f>TRIM('rwc19'!D2)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>TRIM('rwc19'!G2)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" t="str">
@@ -2726,27 +2736,31 @@
         <v>Australia v Fiji</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C49" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(B3," v", "")," ","-"))</f>
+        <f t="shared" ref="B3:C49" si="0">LOWER(SUBSTITUTE(SUBSTITUTE(B3," v", "")," ","-"))</f>
         <v>australia-fiji</v>
       </c>
       <c r="D3" t="str">
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E3))," 2019 ",TEXT('rwc19'!F3,"hh:mm:ss"))</f>
         <v>Saturday 21 September 2019 05:45:00</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>43729.239583333336</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F49" si="1">E3+TIME(1,20,0)</f>
+        <v>43729.295138888891</v>
+      </c>
+      <c r="G3" t="str">
         <f>TRIM('rwc19'!D3)</f>
         <v>Sapporo Dome, Sapporo</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>TRIM('rwc19'!G3)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" t="str">
@@ -2761,20 +2775,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E4))," 2019 ",TEXT('rwc19'!F4,"hh:mm:ss"))</f>
         <v>Saturday 21 September 2019 08:15:00</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>43729.34375</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>43729.399305555555</v>
+      </c>
+      <c r="G4" t="str">
         <f>TRIM('rwc19'!D4)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>TRIM('rwc19'!G4)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="str">
@@ -2789,20 +2807,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E5))," 2019 ",TEXT('rwc19'!F5,"hh:mm:ss"))</f>
         <v>Saturday 21 September 2019 10:45:00</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="7">
         <v>43729.447916666664</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>43729.503472222219</v>
+      </c>
+      <c r="G5" t="str">
         <f>TRIM('rwc19'!D5)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>TRIM('rwc19'!G5)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="str">
@@ -2817,20 +2839,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E6))," 2019 ",TEXT('rwc19'!F6,"hh:mm:ss"))</f>
         <v>Sunday 22 September 2019 06:15:00</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="7">
         <v>43730.260416666664</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>43730.315972222219</v>
+      </c>
+      <c r="G6" t="str">
         <f>TRIM('rwc19'!D6)</f>
         <v>Hanazono Rugby Stadium, Osaka Prefecture, Higashiosaka City</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>TRIM('rwc19'!G6)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" t="str">
@@ -2845,20 +2871,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E7))," 2019 ",TEXT('rwc19'!F7,"hh:mm:ss"))</f>
         <v>Sunday 22 September 2019 08:45:00</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="7">
         <v>43730.364583333336</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>43730.420138888891</v>
+      </c>
+      <c r="G7" t="str">
         <f>TRIM('rwc19'!D7)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f>TRIM('rwc19'!G7)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" t="str">
@@ -2873,20 +2903,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E8))," 2019 ",TEXT('rwc19'!F8,"hh:mm:ss"))</f>
         <v>Sunday 22 September 2019 11:15:00</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="7">
         <v>43730.46875</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>43730.524305555555</v>
+      </c>
+      <c r="G8" t="str">
         <f>TRIM('rwc19'!D8)</f>
         <v>Sapporo Dome, Sapporo</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f>TRIM('rwc19'!G8)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" t="str">
@@ -2901,20 +2935,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E9))," 2019 ",TEXT('rwc19'!F9,"hh:mm:ss"))</f>
         <v>Monday 23 September 2019 11:15:00</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>43731.46875</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>43731.524305555555</v>
+      </c>
+      <c r="G9" t="str">
         <f>TRIM('rwc19'!D9)</f>
         <v>City of Toyota Stadium, Aichi Prefecture, Toyota City</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>TRIM('rwc19'!G9)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" t="str">
@@ -2929,20 +2967,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E10))," 2019 ",TEXT('rwc19'!F10,"hh:mm:ss"))</f>
         <v>Tuesday 24 September 2019 11:15:00</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="7">
         <v>43732.46875</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>43732.524305555555</v>
+      </c>
+      <c r="G10" t="str">
         <f>TRIM('rwc19'!D10)</f>
         <v>Kumagaya Rugby Stadium, Saitama Prefecture, Kumagaya City</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>TRIM('rwc19'!G10)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" t="str">
@@ -2957,20 +2999,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E11))," 2019 ",TEXT('rwc19'!F11,"hh:mm:ss"))</f>
         <v>Wednesday 25 September 2019 06:15:00</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="7">
         <v>43733.260416666664</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>43733.315972222219</v>
+      </c>
+      <c r="G11" t="str">
         <f>TRIM('rwc19'!D11)</f>
         <v>Kamaishi Recovery Memorial Stadium, Iwate Prefecture, Kamaishi City</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>TRIM('rwc19'!G11)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" t="str">
@@ -2985,20 +3031,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E12))," 2019 ",TEXT('rwc19'!F12,"hh:mm:ss"))</f>
         <v>Thursday 26 September 2019 08:45:00</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="7">
         <v>43734.364583333336</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>43734.420138888891</v>
+      </c>
+      <c r="G12" t="str">
         <f>TRIM('rwc19'!D12)</f>
         <v>Fukuoka Hakatanomori Stadium, Fukuoka Prefecture, Fukuoka City</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f>TRIM('rwc19'!G12)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" t="str">
@@ -3013,20 +3063,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E13))," 2019 ",TEXT('rwc19'!F13,"hh:mm:ss"))</f>
         <v>Thursday 26 September 2019 11:45:00</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="7">
         <v>43734.489583333336</v>
       </c>
-      <c r="F13" t="str">
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>43734.545138888891</v>
+      </c>
+      <c r="G13" t="str">
         <f>TRIM('rwc19'!D13)</f>
         <v>Kobe Misaki Stadium, Kobe City</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f>TRIM('rwc19'!G13)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" t="str">
@@ -3041,20 +3095,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E14))," 2019 ",TEXT('rwc19'!F14,"hh:mm:ss"))</f>
         <v>Saturday 28 September 2019 05:45:00</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="7">
         <v>43736.239583333336</v>
       </c>
-      <c r="F14" t="str">
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>43736.295138888891</v>
+      </c>
+      <c r="G14" t="str">
         <f>TRIM('rwc19'!D14)</f>
         <v>Hanazono Rugby Stadium, Osaka Prefecture, Higashiosaka City</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f>TRIM('rwc19'!G14)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" t="str">
@@ -3069,20 +3127,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E15))," 2019 ",TEXT('rwc19'!F15,"hh:mm:ss"))</f>
         <v>Saturday 28 September 2019 08:15:00</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="7">
         <v>43736.34375</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>43736.399305555555</v>
+      </c>
+      <c r="G15" t="str">
         <f>TRIM('rwc19'!D15)</f>
         <v>Shizuoka Stadium Ecopa, Shizuoka Prefecture</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f>TRIM('rwc19'!G15)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" t="str">
@@ -3097,20 +3159,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E16))," 2019 ",TEXT('rwc19'!F16,"hh:mm:ss"))</f>
         <v>Saturday 28 September 2019 10:45:00</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="7">
         <v>43736.447916666664</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>43736.503472222219</v>
+      </c>
+      <c r="G16" t="str">
         <f>TRIM('rwc19'!D16)</f>
         <v>City of Toyota Stadium, Aichi Prefecture, Toyota City</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f>TRIM('rwc19'!G16)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" t="str">
@@ -3125,20 +3191,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E17))," 2019 ",TEXT('rwc19'!F17,"hh:mm:ss"))</f>
         <v>Sunday 29 September 2019 06:15:00</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="7">
         <v>43737.260416666664</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>43737.315972222219</v>
+      </c>
+      <c r="G17" t="str">
         <f>TRIM('rwc19'!D17)</f>
         <v>Kumagaya Rugby Stadium, Saitama Prefecture, Kumagaya City</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f>TRIM('rwc19'!G17)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" t="str">
@@ -3153,20 +3223,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E18))," 2019 ",TEXT('rwc19'!F18,"hh:mm:ss"))</f>
         <v>Sunday 29 September 2019 08:45:00</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="7">
         <v>43737.364583333336</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>43737.420138888891</v>
+      </c>
+      <c r="G18" t="str">
         <f>TRIM('rwc19'!D18)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f>TRIM('rwc19'!G18)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" t="str">
@@ -3181,20 +3255,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E19))," 2019 ",TEXT('rwc19'!F19,"hh:mm:ss"))</f>
         <v>Monday 30 September 2019 11:15:00</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="7">
         <v>43728.46875</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>43728.524305555555</v>
+      </c>
+      <c r="G19" t="str">
         <f>TRIM('rwc19'!D19)</f>
         <v>Kobe Misaki Stadium, Kobe City</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f>TRIM('rwc19'!G19)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" t="str">
@@ -3209,20 +3287,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E20))," 2019 ",TEXT('rwc19'!F20,"hh:mm:ss"))</f>
         <v>Wednesday 02 October 2019 08:45:00</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="7">
         <v>43740.364583333336</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>43740.420138888891</v>
+      </c>
+      <c r="G20" t="str">
         <f>TRIM('rwc19'!D20)</f>
         <v>Fukuoka Hakatanomori Stadium, Fukuoka Prefecture, Fukuoka City</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f>TRIM('rwc19'!G20)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" t="str">
@@ -3237,20 +3319,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E21))," 2019 ",TEXT('rwc19'!F21,"hh:mm:ss"))</f>
         <v>Wednesday 02 October 2019 11:15:00</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="7">
         <v>43740.46875</v>
       </c>
-      <c r="F21" t="str">
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>43740.524305555555</v>
+      </c>
+      <c r="G21" t="str">
         <f>TRIM('rwc19'!D21)</f>
         <v>Oita Stadium, Oita Prefecture</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f>TRIM('rwc19'!G21)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" t="str">
@@ -3265,20 +3351,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E22))," 2019 ",TEXT('rwc19'!F22,"hh:mm:ss"))</f>
         <v>Thursday 03 October 2019 06:15:00</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="7">
         <v>43741.260416666664</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>43741.315972222219</v>
+      </c>
+      <c r="G22" t="str">
         <f>TRIM('rwc19'!D22)</f>
         <v>Hanazono Rugby Stadium, Osaka Prefecture, Higashiosaka City</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f>TRIM('rwc19'!G22)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" t="str">
@@ -3293,20 +3383,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E23))," 2019 ",TEXT('rwc19'!F23,"hh:mm:ss"))</f>
         <v>Thursday 03 October 2019 11:15:00</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="7">
         <v>43741.46875</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>43741.524305555555</v>
+      </c>
+      <c r="G23" t="str">
         <f>TRIM('rwc19'!D23)</f>
         <v>Kobe Misaki Stadium, Kobe City</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f>TRIM('rwc19'!G23)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" t="str">
@@ -3321,20 +3415,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E24))," 2019 ",TEXT('rwc19'!F24,"hh:mm:ss"))</f>
         <v>Friday 04 October 2019 10:45:00</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="7">
         <v>43742.447916666664</v>
       </c>
-      <c r="F24" t="str">
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>43742.503472222219</v>
+      </c>
+      <c r="G24" t="str">
         <f>TRIM('rwc19'!D24)</f>
         <v>Shizuoka Stadium Ecopa, Shizuoka Prefecture</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f>TRIM('rwc19'!G24)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" t="str">
@@ -3349,20 +3447,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E25))," 2019 ",TEXT('rwc19'!F25,"hh:mm:ss"))</f>
         <v>Saturday 05 October 2019 06:15:00</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="7">
         <v>43743.260416666664</v>
       </c>
-      <c r="F25" t="str">
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>43743.315972222219</v>
+      </c>
+      <c r="G25" t="str">
         <f>TRIM('rwc19'!D25)</f>
         <v>Oita Stadium, Oita Prefecture</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f>TRIM('rwc19'!G25)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" t="str">
@@ -3377,20 +3479,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E26))," 2019 ",TEXT('rwc19'!F26,"hh:mm:ss"))</f>
         <v>Saturday 05 October 2019 09:00:00</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="7">
         <v>43743.375</v>
       </c>
-      <c r="F26" t="str">
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>43743.430555555555</v>
+      </c>
+      <c r="G26" t="str">
         <f>TRIM('rwc19'!D26)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f>TRIM('rwc19'!G26)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" t="str">
@@ -3405,20 +3511,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E27))," 2019 ",TEXT('rwc19'!F27,"hh:mm:ss"))</f>
         <v>Saturday 05 October 2019 11:30:00</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="7">
         <v>43743.479166666664</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>43743.534722222219</v>
+      </c>
+      <c r="G27" t="str">
         <f>TRIM('rwc19'!D27)</f>
         <v>City of Toyota Stadium, Aichi Prefecture, Toyota City</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <f>TRIM('rwc19'!G27)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" t="str">
@@ -3433,20 +3543,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E28))," 2019 ",TEXT('rwc19'!F28,"hh:mm:ss"))</f>
         <v>Sunday 06 October 2019 05:45:00</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="7">
         <v>43744.239583333336</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>43744.295138888891</v>
+      </c>
+      <c r="G28" t="str">
         <f>TRIM('rwc19'!D28)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <f>TRIM('rwc19'!G28)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" t="str">
@@ -3461,20 +3575,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E29))," 2019 ",TEXT('rwc19'!F29,"hh:mm:ss"))</f>
         <v>Sunday 06 October 2019 08:45:00</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="7">
         <v>43744.364583333336</v>
       </c>
-      <c r="F29" t="str">
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>43744.420138888891</v>
+      </c>
+      <c r="G29" t="str">
         <f>TRIM('rwc19'!D29)</f>
         <v>Kumamoto Stadium, Kumamoto Prefecture, Kumamoto City</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <f>TRIM('rwc19'!G29)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" t="str">
@@ -3489,20 +3607,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E30))," 2019 ",TEXT('rwc19'!F30,"hh:mm:ss"))</f>
         <v>Tuesday 08 October 2019 11:15:00</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="7">
         <v>43746.46875</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>43746.524305555555</v>
+      </c>
+      <c r="G30" t="str">
         <f>TRIM('rwc19'!D30)</f>
         <v>Kobe Misaki Stadium, Kobe City</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <f>TRIM('rwc19'!G30)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" t="str">
@@ -3517,20 +3639,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E31))," 2019 ",TEXT('rwc19'!F31,"hh:mm:ss"))</f>
         <v>Wednesday 09 October 2019 05:45:00</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="7">
         <v>43747.239583333336</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>43747.295138888891</v>
+      </c>
+      <c r="G31" t="str">
         <f>TRIM('rwc19'!D31)</f>
         <v>Kumagaya Rugby Stadium, Saitama Prefecture, Kumagaya City</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f>TRIM('rwc19'!G31)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" t="str">
@@ -3545,20 +3671,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E32))," 2019 ",TEXT('rwc19'!F32,"hh:mm:ss"))</f>
         <v>Wednesday 09 October 2019 08:15:00</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="7">
         <v>43747.34375</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>43747.399305555555</v>
+      </c>
+      <c r="G32" t="str">
         <f>TRIM('rwc19'!D32)</f>
         <v>Shizuoka Stadium Ecopa, Shizuoka Prefecture</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f>TRIM('rwc19'!G32)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" t="str">
@@ -3573,20 +3703,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E33))," 2019 ",TEXT('rwc19'!F33,"hh:mm:ss"))</f>
         <v>Wednesday 09 October 2019 10:45:00</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="7">
         <v>43747.447916666664</v>
       </c>
-      <c r="F33" t="str">
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>43747.503472222219</v>
+      </c>
+      <c r="G33" t="str">
         <f>TRIM('rwc19'!D33)</f>
         <v>Oita Stadium, Oita Prefecture</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f>TRIM('rwc19'!G33)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" t="str">
@@ -3601,20 +3735,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E34))," 2019 ",TEXT('rwc19'!F34,"hh:mm:ss"))</f>
         <v>Friday 11 October 2019 11:15:00</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="7">
         <v>43749.46875</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>43749.524305555555</v>
+      </c>
+      <c r="G34" t="str">
         <f>TRIM('rwc19'!D34)</f>
         <v>Shizuoka Stadium Ecopa, Shizuoka Prefecture</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f>TRIM('rwc19'!G34)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" t="str">
@@ -3629,20 +3767,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E35))," 2019 ",TEXT('rwc19'!F35,"hh:mm:ss"))</f>
         <v>Saturday 12 October 2019 05:45:00</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="7">
         <v>43750.239583333336</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>43750.295138888891</v>
+      </c>
+      <c r="G35" t="str">
         <f>TRIM('rwc19'!D35)</f>
         <v>City of Toyota Stadium, Aichi Prefecture, Toyota City</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f>TRIM('rwc19'!G35)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" t="str">
@@ -3657,20 +3799,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E36))," 2019 ",TEXT('rwc19'!F36,"hh:mm:ss"))</f>
         <v>Saturday 12 October 2019 09:15:00</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="7">
         <v>43750.385416666664</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>43750.440972222219</v>
+      </c>
+      <c r="G36" t="str">
         <f>TRIM('rwc19'!D36)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f>TRIM('rwc19'!G36)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" t="str">
@@ -3685,20 +3831,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E37))," 2019 ",TEXT('rwc19'!F37,"hh:mm:ss"))</f>
         <v>Saturday 12 October 2019 11:45:00</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="7">
         <v>43750.489583333336</v>
       </c>
-      <c r="F37" t="str">
+      <c r="F37" s="7">
+        <f t="shared" si="1"/>
+        <v>43750.545138888891</v>
+      </c>
+      <c r="G37" t="str">
         <f>TRIM('rwc19'!D37)</f>
         <v>Fukuoka Hakatanomori Stadium, Fukuoka Prefecture, Fukuoka City</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f>TRIM('rwc19'!G37)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" t="str">
@@ -3713,20 +3863,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E38))," 2019 ",TEXT('rwc19'!F38,"hh:mm:ss"))</f>
         <v>Sunday 13 October 2019 04:15:00</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="7">
         <v>43751.177083333336</v>
       </c>
-      <c r="F38" t="str">
+      <c r="F38" s="7">
+        <f t="shared" si="1"/>
+        <v>43751.232638888891</v>
+      </c>
+      <c r="G38" t="str">
         <f>TRIM('rwc19'!D38)</f>
         <v>Kamaishi Recovery Memorial Stadium, Iwate Prefecture, Kamaishi City</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f>TRIM('rwc19'!G38)</f>
         <v>Pool B</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" t="str">
@@ -3741,20 +3895,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E39))," 2019 ",TEXT('rwc19'!F39,"hh:mm:ss"))</f>
         <v>Sunday 13 October 2019 06:45:00</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="7">
         <v>43751.28125</v>
       </c>
-      <c r="F39" t="str">
+      <c r="F39" s="7">
+        <f t="shared" si="1"/>
+        <v>43751.336805555555</v>
+      </c>
+      <c r="G39" t="str">
         <f>TRIM('rwc19'!D39)</f>
         <v>Hanazono Rugby Stadium, Osaka Prefecture, Higashiosaka City</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H39" t="str">
         <f>TRIM('rwc19'!G39)</f>
         <v>Pool C</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" t="str">
@@ -3769,20 +3927,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E40))," 2019 ",TEXT('rwc19'!F40,"hh:mm:ss"))</f>
         <v>Sunday 13 October 2019 09:15:00</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="7">
         <v>43751.385416666664</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F40" s="7">
+        <f t="shared" si="1"/>
+        <v>43751.440972222219</v>
+      </c>
+      <c r="G40" t="str">
         <f>TRIM('rwc19'!D40)</f>
         <v>Kumamoto Stadium, Kumamoto Prefecture, Kumamoto City</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <f>TRIM('rwc19'!G40)</f>
         <v>Pool D</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" t="str">
@@ -3797,20 +3959,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E41))," 2019 ",TEXT('rwc19'!F41,"hh:mm:ss"))</f>
         <v>Sunday 13 October 2019 11:45:00</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="7">
         <v>43751.489583333336</v>
       </c>
-      <c r="F41" t="str">
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>43751.545138888891</v>
+      </c>
+      <c r="G41" t="str">
         <f>TRIM('rwc19'!D41)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f>TRIM('rwc19'!G41)</f>
         <v>Pool A</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" t="str">
@@ -3825,20 +3991,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E42))," 2019 ",TEXT('rwc19'!F42,"hh:mm:ss"))</f>
         <v>Saturday 19 October 2019 08:15:00</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="7">
         <v>43757.34375</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>43757.399305555555</v>
+      </c>
+      <c r="G42" t="str">
         <f>TRIM('rwc19'!D42)</f>
         <v>Oita Stadium, Oita Prefecture</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <f>TRIM('rwc19'!G42)</f>
         <v>Quarter-Finals</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" t="str">
@@ -3853,20 +4023,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E43))," 2019 ",TEXT('rwc19'!F43,"hh:mm:ss"))</f>
         <v>Saturday 19 October 2019 11:15:00</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="7">
         <v>43757.46875</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43" s="7">
+        <f t="shared" si="1"/>
+        <v>43757.524305555555</v>
+      </c>
+      <c r="G43" t="str">
         <f>TRIM('rwc19'!D43)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <f>TRIM('rwc19'!G43)</f>
         <v>Quarter-Finals</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" t="str">
@@ -3881,20 +4055,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E44))," 2019 ",TEXT('rwc19'!F44,"hh:mm:ss"))</f>
         <v>Sunday 20 October 2019 08:15:00</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="7">
         <v>43758.34375</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44" s="7">
+        <f t="shared" si="1"/>
+        <v>43758.399305555555</v>
+      </c>
+      <c r="G44" t="str">
         <f>TRIM('rwc19'!D44)</f>
         <v>Oita Stadium, Oita Prefecture</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H44" t="str">
         <f>TRIM('rwc19'!G44)</f>
         <v>Quarter-Finals</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" t="str">
@@ -3909,20 +4087,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E45))," 2019 ",TEXT('rwc19'!F45,"hh:mm:ss"))</f>
         <v>Sunday 20 October 2019 11:15:00</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="7">
         <v>43758.46875</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45" s="7">
+        <f t="shared" si="1"/>
+        <v>43758.524305555555</v>
+      </c>
+      <c r="G45" t="str">
         <f>TRIM('rwc19'!D45)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H45" t="str">
         <f>TRIM('rwc19'!G45)</f>
         <v>Quarter-Finals</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" t="str">
@@ -3937,20 +4119,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E46))," 2019 ",TEXT('rwc19'!F46,"hh:mm:ss"))</f>
         <v>Saturday 26 October 2019 09:00:00</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="7">
         <v>43764.375</v>
       </c>
-      <c r="F46" t="str">
+      <c r="F46" s="7">
+        <f t="shared" si="1"/>
+        <v>43764.430555555555</v>
+      </c>
+      <c r="G46" t="str">
         <f>TRIM('rwc19'!D46)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H46" t="str">
         <f>TRIM('rwc19'!G46)</f>
         <v>Semi-Finals</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" t="str">
@@ -3965,20 +4151,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E47))," 2019 ",TEXT('rwc19'!F47,"hh:mm:ss"))</f>
         <v>Sunday 27 October 2019 09:00:00</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="7">
         <v>43765.375</v>
       </c>
-      <c r="F47" t="str">
+      <c r="F47" s="7">
+        <f t="shared" si="1"/>
+        <v>43765.430555555555</v>
+      </c>
+      <c r="G47" t="str">
         <f>TRIM('rwc19'!D47)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <f>TRIM('rwc19'!G47)</f>
         <v>Semi-Finals</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" t="str">
@@ -3993,20 +4183,24 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E48))," 2019 ",TEXT('rwc19'!F48,"hh:mm:ss"))</f>
         <v>Friday 01 November 2019 09:00:00</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="7">
         <v>43770.375</v>
       </c>
-      <c r="F48" t="str">
+      <c r="F48" s="7">
+        <f t="shared" si="1"/>
+        <v>43770.430555555555</v>
+      </c>
+      <c r="G48" t="str">
         <f>TRIM('rwc19'!D48)</f>
         <v>Tokyo Stadium, Tokyo</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f>TRIM('rwc19'!G48)</f>
         <v>Bronze Final</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" t="str">
@@ -4021,84 +4215,88 @@
         <f>CONCATENATE(TRIM(CLEAN('rwc19'!E49))," 2019 ",TEXT('rwc19'!F49,"hh:mm:ss"))</f>
         <v>Saturday 02 November 2019 09:00:00</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="7">
         <v>43771.375</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>43771.430555555555</v>
+      </c>
+      <c r="G49" t="str">
         <f>TRIM('rwc19'!D49)</f>
         <v>International Stadium Yokohama, Kanagawa Prefecture, Yokohama City</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f>TRIM('rwc19'!G49)</f>
         <v>Final</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" t="str">
         <f>TRIM(CLEAN('rwc19'!C50))</f>
         <v/>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <f>TRIM('rwc19'!D50)</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F51" t="str">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G51" t="str">
         <f>TRIM('rwc19'!D51)</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F52" t="str">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G52" t="str">
         <f>TRIM('rwc19'!D52)</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F53" t="str">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G53" t="str">
         <f>TRIM('rwc19'!D53)</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F54" t="str">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G54" t="str">
         <f>TRIM('rwc19'!D54)</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F55" t="str">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G55" t="str">
         <f>TRIM('rwc19'!D55)</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F56" t="str">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G56" t="str">
         <f>TRIM('rwc19'!D56)</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F57" t="str">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G57" t="str">
         <f>TRIM('rwc19'!D57)</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F58" t="str">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G58" t="str">
         <f>TRIM('rwc19'!D58)</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F59" t="str">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G59" t="str">
         <f>TRIM('rwc19'!D59)</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F60" t="str">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G60" t="str">
         <f>TRIM('rwc19'!D60)</f>
         <v/>
       </c>
